--- a/php/config/database/import_dati_20190704.xlsx
+++ b/php/config/database/import_dati_20190704.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnvit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lavoro\GitHub\OxMosys\php\config\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2EAACF-407A-4D8A-B762-05E523AB00F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C015716-452B-4165-AD6D-B935AC0C2C91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="2715" windowWidth="24555" windowHeight="16965" activeTab="3" xr2:uid="{D3D00E6F-0421-4317-BB00-4A89BB4C4319}"/>
+    <workbookView xWindow="13575" yWindow="3735" windowWidth="24555" windowHeight="16965" xr2:uid="{D3D00E6F-0421-4317-BB00-4A89BB4C4319}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="166">
   <si>
     <t>FORNITORE</t>
   </si>
@@ -532,9 +532,6 @@
     <t>obsolete</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>APP_WAREHOUSE_CAUSALS_ID</t>
   </si>
   <si>
@@ -955,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -995,17 +992,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1017,7 +1003,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1224,16 +1210,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1371,16 +1351,16 @@
     <tableColumn id="5" xr3:uid="{370341EF-E0EC-4EFC-8910-964A6A0A0F07}" name="TIPO" dataDxfId="11">
       <calculatedColumnFormula>M!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DE163E53-2163-4261-894D-B2830814AB91}" name="MODELLO" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{DE163E53-2163-4261-894D-B2830814AB91}" name="MODELLO" dataDxfId="10">
       <calculatedColumnFormula>IF(M!D2="","N/A",M!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A30B8897-EE96-4E28-A3DF-C9FBEC473B57}" name="COLORE" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{A30B8897-EE96-4E28-A3DF-C9FBEC473B57}" name="COLORE" dataDxfId="9">
       <calculatedColumnFormula>IF(M!E2="","N/A",M!E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E9FB69E-F72D-4067-8593-2FE8252A6E0D}" name="TAGLIA" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{0E9FB69E-F72D-4067-8593-2FE8252A6E0D}" name="TAGLIA" dataDxfId="8">
       <calculatedColumnFormula>IF(M!G2="","U",M!G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B3CDFF01-1574-438C-A0DD-71E128593B9A}" name="GENERE" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{B3CDFF01-1574-438C-A0DD-71E128593B9A}" name="GENERE" dataDxfId="7">
       <calculatedColumnFormula>M!B2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1389,19 +1369,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{60C021A0-1232-4237-9CF4-98E5109F68CD}" name="Table467" displayName="Table467" ref="A1:F320" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{60C021A0-1232-4237-9CF4-98E5109F68CD}" name="Table467" displayName="Table467" ref="A1:F320" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:F320" xr:uid="{5CA16503-E99A-4787-ABE9-4022BA5F3950}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7BA50E57-B7E5-4F67-90D7-D9AB83169EA5}" name="APP_WAREHOUSE_ITEMS_ID" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{7BA50E57-B7E5-4F67-90D7-D9AB83169EA5}" name="APP_WAREHOUSE_ITEMS_ID" dataDxfId="5">
       <calculatedColumnFormula>Table4[[#This Row],[ID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8C496480-4CA4-4B59-874E-81864BD0B915}" name="QUANTITY" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{8C496480-4CA4-4B59-874E-81864BD0B915}" name="QUANTITY" dataDxfId="4">
       <calculatedColumnFormula>M!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{ED765D50-253D-45D4-AF67-1B774E2183A9}" name="USERREG" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{806599F8-7FF6-452D-973A-4DA9B0898D09}" name="USERUPDATE" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{67C681C0-FFEC-46E8-91C9-D32DAC6DF719}" name="APP_WAREHOUSE_CAUSALS_ID" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{4190218B-3949-44B3-8DAD-4FD1576AEC4B}" name="APP_WAREHOUSES_ID" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{ED765D50-253D-45D4-AF67-1B774E2183A9}" name="USERREG" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{806599F8-7FF6-452D-973A-4DA9B0898D09}" name="USERUPDATE" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{67C681C0-FFEC-46E8-91C9-D32DAC6DF719}" name="APP_WAREHOUSE_CAUSALS_ID" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{4190218B-3949-44B3-8DAD-4FD1576AEC4B}" name="APP_WAREHOUSES_ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1706,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8EAEEA-4F91-4A53-8AE2-F4CBBA86A159}">
   <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H342" sqref="H342"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,9 +1791,6 @@
       <c r="I3" s="68">
         <v>3</v>
       </c>
-      <c r="J3" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1843,9 +1820,6 @@
       <c r="I4" s="68">
         <v>4</v>
       </c>
-      <c r="J4" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1875,9 +1849,6 @@
       <c r="I5" s="68">
         <v>1</v>
       </c>
-      <c r="J5" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1907,9 +1878,6 @@
       <c r="I6" s="68">
         <v>3</v>
       </c>
-      <c r="J6" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1939,9 +1907,6 @@
       <c r="I7" s="68">
         <v>2</v>
       </c>
-      <c r="J7" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1971,9 +1936,6 @@
       <c r="I8" s="68">
         <v>4</v>
       </c>
-      <c r="J8" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2003,9 +1965,6 @@
       <c r="I9" s="68">
         <v>4</v>
       </c>
-      <c r="J9" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2035,9 +1994,6 @@
       <c r="I10" s="68">
         <v>2</v>
       </c>
-      <c r="J10" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2067,9 +2023,6 @@
       <c r="I11" s="68">
         <v>2</v>
       </c>
-      <c r="J11" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2099,9 +2052,6 @@
       <c r="I12" s="68">
         <v>1</v>
       </c>
-      <c r="J12" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2131,7 +2081,6 @@
       <c r="I13" s="68">
         <v>1</v>
       </c>
-      <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2161,9 +2110,6 @@
       <c r="I14" s="68">
         <v>4</v>
       </c>
-      <c r="J14" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -2193,9 +2139,6 @@
       <c r="I15" s="68">
         <v>1</v>
       </c>
-      <c r="J15" s="72" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2225,11 +2168,8 @@
       <c r="I16" s="68">
         <v>3</v>
       </c>
-      <c r="J16" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2257,11 +2197,8 @@
       <c r="I17" s="68">
         <v>6</v>
       </c>
-      <c r="J17" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2289,11 +2226,8 @@
       <c r="I18" s="68">
         <v>3</v>
       </c>
-      <c r="J18" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2321,11 +2255,8 @@
       <c r="I19" s="68">
         <v>3</v>
       </c>
-      <c r="J19" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2353,11 +2284,8 @@
       <c r="I20" s="68">
         <v>1</v>
       </c>
-      <c r="J20" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2385,11 +2313,8 @@
       <c r="I21" s="68">
         <v>2</v>
       </c>
-      <c r="J21" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2417,11 +2342,8 @@
       <c r="I22" s="68">
         <v>4</v>
       </c>
-      <c r="J22" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -2449,11 +2371,8 @@
       <c r="I23" s="68">
         <v>1</v>
       </c>
-      <c r="J23" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2511,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -2569,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2598,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2627,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -2656,7 +2575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -3178,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -3207,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3265,7 +3184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -3294,7 +3213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -3323,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -3352,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -3381,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -3410,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -3439,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -3497,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
@@ -3526,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -3554,11 +3473,8 @@
       <c r="I61" s="68">
         <v>1</v>
       </c>
-      <c r="J61" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -3586,11 +3502,8 @@
       <c r="I62" s="68">
         <v>1</v>
       </c>
-      <c r="J62" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -3619,7 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -3677,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -3706,7 +3619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
@@ -3735,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -3764,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
@@ -3793,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -3822,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
@@ -3851,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -3880,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>5</v>
       </c>
@@ -3908,11 +3821,8 @@
       <c r="I73" s="68">
         <v>1</v>
       </c>
-      <c r="J73" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -3940,11 +3850,8 @@
       <c r="I74" s="68">
         <v>2</v>
       </c>
-      <c r="J74" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>5</v>
       </c>
@@ -3972,11 +3879,8 @@
       <c r="I75" s="68">
         <v>3</v>
       </c>
-      <c r="J75" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>5</v>
       </c>
@@ -4004,11 +3908,8 @@
       <c r="I76" s="68">
         <v>5</v>
       </c>
-      <c r="J76" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
@@ -4036,11 +3937,8 @@
       <c r="I77" s="68">
         <v>3</v>
       </c>
-      <c r="J77" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
@@ -4068,11 +3966,8 @@
       <c r="I78" s="68">
         <v>1</v>
       </c>
-      <c r="J78" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
@@ -4100,11 +3995,8 @@
       <c r="I79" s="68">
         <v>1</v>
       </c>
-      <c r="J79" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>5</v>
       </c>
@@ -4132,11 +4024,8 @@
       <c r="I80" s="68">
         <v>2</v>
       </c>
-      <c r="J80" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>5</v>
       </c>
@@ -4164,11 +4053,8 @@
       <c r="I81" s="68">
         <v>1</v>
       </c>
-      <c r="J81" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
@@ -4196,11 +4082,8 @@
       <c r="I82" s="68">
         <v>2</v>
       </c>
-      <c r="J82" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
@@ -4228,11 +4111,8 @@
       <c r="I83" s="68">
         <v>3</v>
       </c>
-      <c r="J83" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -4260,11 +4140,8 @@
       <c r="I84" s="68">
         <v>2</v>
       </c>
-      <c r="J84" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
@@ -4292,11 +4169,8 @@
       <c r="I85" s="68">
         <v>1</v>
       </c>
-      <c r="J85" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
@@ -4324,11 +4198,8 @@
       <c r="I86" s="68">
         <v>1</v>
       </c>
-      <c r="J86" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
@@ -4356,11 +4227,8 @@
       <c r="I87" s="68">
         <v>1</v>
       </c>
-      <c r="J87" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
@@ -4388,11 +4256,8 @@
       <c r="I88" s="68">
         <v>2</v>
       </c>
-      <c r="J88" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
@@ -4420,11 +4285,8 @@
       <c r="I89" s="68">
         <v>4</v>
       </c>
-      <c r="J89" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
@@ -4453,7 +4315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
@@ -4511,7 +4373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
@@ -4540,7 +4402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -4569,7 +4431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
@@ -4598,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
@@ -4627,7 +4489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -4656,7 +4518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
@@ -4685,7 +4547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
@@ -4714,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
@@ -4743,7 +4605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
@@ -4772,7 +4634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -4801,7 +4663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
@@ -4830,7 +4692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
@@ -4859,7 +4721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
@@ -4888,7 +4750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>5</v>
       </c>
@@ -4917,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>5</v>
       </c>
@@ -4946,7 +4808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>5</v>
       </c>
@@ -4974,11 +4836,8 @@
       <c r="I108" s="68">
         <v>2</v>
       </c>
-      <c r="J108" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>5</v>
       </c>
@@ -5006,11 +4865,8 @@
       <c r="I109" s="68">
         <v>1</v>
       </c>
-      <c r="J109" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>5</v>
       </c>
@@ -5038,11 +4894,8 @@
       <c r="I110" s="68">
         <v>1</v>
       </c>
-      <c r="J110" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
@@ -5070,11 +4923,8 @@
       <c r="I111" s="68">
         <v>2</v>
       </c>
-      <c r="J111" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>5</v>
       </c>
@@ -5102,11 +4952,8 @@
       <c r="I112" s="68">
         <v>2</v>
       </c>
-      <c r="J112" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
@@ -5134,11 +4981,8 @@
       <c r="I113" s="68">
         <v>7</v>
       </c>
-      <c r="J113" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
@@ -5166,11 +5010,8 @@
       <c r="I114" s="68">
         <v>1</v>
       </c>
-      <c r="J114" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
@@ -5198,11 +5039,8 @@
       <c r="I115" s="68">
         <v>1</v>
       </c>
-      <c r="J115" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
@@ -5230,11 +5068,8 @@
       <c r="I116" s="68">
         <v>2</v>
       </c>
-      <c r="J116" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>5</v>
       </c>
@@ -5262,11 +5097,8 @@
       <c r="I117" s="68">
         <v>1</v>
       </c>
-      <c r="J117" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>5</v>
       </c>
@@ -5294,11 +5126,8 @@
       <c r="I118" s="68">
         <v>1</v>
       </c>
-      <c r="J118" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -5326,11 +5155,8 @@
       <c r="I119" s="68">
         <v>1</v>
       </c>
-      <c r="J119" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
@@ -5358,11 +5184,8 @@
       <c r="I120" s="68">
         <v>1</v>
       </c>
-      <c r="J120" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
@@ -5390,11 +5213,8 @@
       <c r="I121" s="68">
         <v>1</v>
       </c>
-      <c r="J121" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
@@ -5422,11 +5242,8 @@
       <c r="I122" s="68">
         <v>1</v>
       </c>
-      <c r="J122" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>5</v>
       </c>
@@ -5454,11 +5271,8 @@
       <c r="I123" s="68">
         <v>2</v>
       </c>
-      <c r="J123" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -5486,11 +5300,8 @@
       <c r="I124" s="68">
         <v>1</v>
       </c>
-      <c r="J124" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
@@ -5518,11 +5329,8 @@
       <c r="I125" s="68">
         <v>2</v>
       </c>
-      <c r="J125" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
@@ -5550,11 +5358,8 @@
       <c r="I126" s="68">
         <v>2</v>
       </c>
-      <c r="J126" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
@@ -5583,7 +5388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>5</v>
       </c>
@@ -5612,7 +5417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>5</v>
       </c>
@@ -5641,7 +5446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>5</v>
       </c>
@@ -5670,7 +5475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>5</v>
       </c>
@@ -5698,11 +5503,8 @@
       <c r="I131" s="68">
         <v>2</v>
       </c>
-      <c r="J131" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>5</v>
       </c>
@@ -5730,11 +5532,8 @@
       <c r="I132" s="68">
         <v>2</v>
       </c>
-      <c r="J132" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>5</v>
       </c>
@@ -5762,11 +5561,8 @@
       <c r="I133" s="68">
         <v>5</v>
       </c>
-      <c r="J133" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>5</v>
       </c>
@@ -5795,7 +5591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
@@ -5824,7 +5620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>5</v>
       </c>
@@ -5853,7 +5649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>5</v>
       </c>
@@ -5882,7 +5678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>5</v>
       </c>
@@ -5911,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
@@ -5939,11 +5735,8 @@
       <c r="I139" s="68">
         <v>1</v>
       </c>
-      <c r="J139" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>5</v>
       </c>
@@ -5971,11 +5764,8 @@
       <c r="I140" s="68">
         <v>2</v>
       </c>
-      <c r="J140" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
@@ -6003,11 +5793,8 @@
       <c r="I141" s="68">
         <v>2</v>
       </c>
-      <c r="J141" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>5</v>
       </c>
@@ -6035,11 +5822,8 @@
       <c r="I142" s="68">
         <v>1</v>
       </c>
-      <c r="J142" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>5</v>
       </c>
@@ -6067,11 +5851,8 @@
       <c r="I143" s="68">
         <v>2</v>
       </c>
-      <c r="J143" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>5</v>
       </c>
@@ -6099,11 +5880,8 @@
       <c r="I144" s="68">
         <v>3</v>
       </c>
-      <c r="J144" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>5</v>
       </c>
@@ -6131,11 +5909,8 @@
       <c r="I145" s="68">
         <v>3</v>
       </c>
-      <c r="J145" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
@@ -6163,11 +5938,8 @@
       <c r="I146" s="68">
         <v>1</v>
       </c>
-      <c r="J146" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>5</v>
       </c>
@@ -6196,7 +5968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>5</v>
       </c>
@@ -6224,11 +5996,8 @@
       <c r="I148" s="68">
         <v>2</v>
       </c>
-      <c r="J148" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>5</v>
       </c>
@@ -6256,11 +6025,8 @@
       <c r="I149" s="68">
         <v>3</v>
       </c>
-      <c r="J149" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>5</v>
       </c>
@@ -6288,11 +6054,8 @@
       <c r="I150" s="68">
         <v>8</v>
       </c>
-      <c r="J150" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -6320,11 +6083,8 @@
       <c r="I151" s="68">
         <v>13</v>
       </c>
-      <c r="J151" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>5</v>
       </c>
@@ -6352,11 +6112,8 @@
       <c r="I152" s="68">
         <v>13</v>
       </c>
-      <c r="J152" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>5</v>
       </c>
@@ -6384,11 +6141,8 @@
       <c r="I153" s="68">
         <v>1</v>
       </c>
-      <c r="J153" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>5</v>
       </c>
@@ -6416,11 +6170,8 @@
       <c r="I154" s="68">
         <v>1</v>
       </c>
-      <c r="J154" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>5</v>
       </c>
@@ -6448,11 +6199,8 @@
       <c r="I155" s="68">
         <v>2</v>
       </c>
-      <c r="J155" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>5</v>
       </c>
@@ -6480,11 +6228,8 @@
       <c r="I156" s="68">
         <v>2</v>
       </c>
-      <c r="J156" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>5</v>
       </c>
@@ -6513,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>5</v>
       </c>
@@ -6542,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>5</v>
       </c>
@@ -6571,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>5</v>
       </c>
@@ -7064,7 +6809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>5</v>
       </c>
@@ -7093,7 +6838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>5</v>
       </c>
@@ -7122,7 +6867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>5</v>
       </c>
@@ -7151,7 +6896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>5</v>
       </c>
@@ -7180,7 +6925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>5</v>
       </c>
@@ -7209,7 +6954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>5</v>
       </c>
@@ -7238,7 +6983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>5</v>
       </c>
@@ -7267,7 +7012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>5</v>
       </c>
@@ -7296,7 +7041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>5</v>
       </c>
@@ -7325,7 +7070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>5</v>
       </c>
@@ -7353,9 +7098,8 @@
       <c r="I186" s="68">
         <v>3</v>
       </c>
-      <c r="J186" s="72"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>5</v>
       </c>
@@ -7383,9 +7127,8 @@
       <c r="I187" s="68">
         <v>3</v>
       </c>
-      <c r="J187" s="72"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>5</v>
       </c>
@@ -7413,9 +7156,8 @@
       <c r="I188" s="68">
         <v>4</v>
       </c>
-      <c r="J188" s="72"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>5</v>
       </c>
@@ -7443,9 +7185,8 @@
       <c r="I189" s="68">
         <v>4</v>
       </c>
-      <c r="J189" s="73"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>5</v>
       </c>
@@ -7473,9 +7214,8 @@
       <c r="I190" s="68">
         <v>1</v>
       </c>
-      <c r="J190" s="73"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>5</v>
       </c>
@@ -7504,7 +7244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>5</v>
       </c>
@@ -7533,7 +7273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>5</v>
       </c>
@@ -7562,7 +7302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>5</v>
       </c>
@@ -7591,7 +7331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>5</v>
       </c>
@@ -7620,7 +7360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>5</v>
       </c>
@@ -7649,7 +7389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>5</v>
       </c>
@@ -7678,7 +7418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>5</v>
       </c>
@@ -7707,7 +7447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>5</v>
       </c>
@@ -7736,7 +7476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>5</v>
       </c>
@@ -7765,7 +7505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>5</v>
       </c>
@@ -7794,7 +7534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>5</v>
       </c>
@@ -7823,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>5</v>
       </c>
@@ -7851,11 +7591,8 @@
       <c r="I203" s="68">
         <v>1</v>
       </c>
-      <c r="J203" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>5</v>
       </c>
@@ -7884,7 +7621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>5</v>
       </c>
@@ -7913,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>5</v>
       </c>
@@ -7942,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>5</v>
       </c>
@@ -7971,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>5</v>
       </c>
@@ -8000,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>5</v>
       </c>
@@ -8029,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>5</v>
       </c>
@@ -8058,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>5</v>
       </c>
@@ -8086,11 +7823,8 @@
       <c r="I211" s="68">
         <v>2</v>
       </c>
-      <c r="J211" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>5</v>
       </c>
@@ -8118,11 +7852,8 @@
       <c r="I212" s="68">
         <v>2</v>
       </c>
-      <c r="J212" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>5</v>
       </c>
@@ -8150,11 +7881,8 @@
       <c r="I213" s="68">
         <v>2</v>
       </c>
-      <c r="J213" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>5</v>
       </c>
@@ -8182,11 +7910,8 @@
       <c r="I214" s="68">
         <v>4</v>
       </c>
-      <c r="J214" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>5</v>
       </c>
@@ -8214,11 +7939,8 @@
       <c r="I215" s="68">
         <v>4</v>
       </c>
-      <c r="J215" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>5</v>
       </c>
@@ -8247,7 +7969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>5</v>
       </c>
@@ -8276,7 +7998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>5</v>
       </c>
@@ -8305,7 +8027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>5</v>
       </c>
@@ -8334,7 +8056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>5</v>
       </c>
@@ -8363,7 +8085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>5</v>
       </c>
@@ -8391,11 +8113,8 @@
       <c r="I221" s="68">
         <v>4</v>
       </c>
-      <c r="J221" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>5</v>
       </c>
@@ -8423,11 +8142,8 @@
       <c r="I222" s="68">
         <v>3</v>
       </c>
-      <c r="J222" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>5</v>
       </c>
@@ -8455,11 +8171,8 @@
       <c r="I223" s="68">
         <v>3</v>
       </c>
-      <c r="J223" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>5</v>
       </c>
@@ -8487,11 +8200,8 @@
       <c r="I224" s="68">
         <v>5</v>
       </c>
-      <c r="J224" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>5</v>
       </c>
@@ -8520,7 +8230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>5</v>
       </c>
@@ -8549,7 +8259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>5</v>
       </c>
@@ -8578,7 +8288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>5</v>
       </c>
@@ -8607,7 +8317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>5</v>
       </c>
@@ -8636,7 +8346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>5</v>
       </c>
@@ -8664,11 +8374,8 @@
       <c r="I230" s="68">
         <v>1</v>
       </c>
-      <c r="J230" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>5</v>
       </c>
@@ -8696,11 +8403,8 @@
       <c r="I231" s="68">
         <v>1</v>
       </c>
-      <c r="J231" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>5</v>
       </c>
@@ -8729,7 +8433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>5</v>
       </c>
@@ -8758,7 +8462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>5</v>
       </c>
@@ -8787,7 +8491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>5</v>
       </c>
@@ -8816,7 +8520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>5</v>
       </c>
@@ -8845,7 +8549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>5</v>
       </c>
@@ -8874,7 +8578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>5</v>
       </c>
@@ -8903,7 +8607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>5</v>
       </c>
@@ -8932,7 +8636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>5</v>
       </c>
@@ -8961,7 +8665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>5</v>
       </c>
@@ -8990,7 +8694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>5</v>
       </c>
@@ -9019,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>5</v>
       </c>
@@ -9048,7 +8752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>5</v>
       </c>
@@ -9077,7 +8781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>5</v>
       </c>
@@ -9106,7 +8810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>5</v>
       </c>
@@ -9135,7 +8839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>5</v>
       </c>
@@ -9164,7 +8868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>5</v>
       </c>
@@ -9193,7 +8897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>5</v>
       </c>
@@ -9222,7 +8926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>5</v>
       </c>
@@ -9251,7 +8955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>5</v>
       </c>
@@ -9280,7 +8984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>5</v>
       </c>
@@ -9308,11 +9012,8 @@
       <c r="I252" s="68">
         <v>2</v>
       </c>
-      <c r="J252" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>5</v>
       </c>
@@ -9340,11 +9041,8 @@
       <c r="I253" s="68">
         <v>3</v>
       </c>
-      <c r="J253" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>5</v>
       </c>
@@ -9372,11 +9070,8 @@
       <c r="I254" s="68">
         <v>2</v>
       </c>
-      <c r="J254" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>5</v>
       </c>
@@ -9404,11 +9099,8 @@
       <c r="I255" s="68">
         <v>1</v>
       </c>
-      <c r="J255" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>5</v>
       </c>
@@ -9436,11 +9128,8 @@
       <c r="I256" s="68">
         <v>2</v>
       </c>
-      <c r="J256" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>5</v>
       </c>
@@ -9468,11 +9157,8 @@
       <c r="I257" s="68">
         <v>3</v>
       </c>
-      <c r="J257" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>5</v>
       </c>
@@ -9500,11 +9186,8 @@
       <c r="I258" s="68">
         <v>1</v>
       </c>
-      <c r="J258" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>5</v>
       </c>
@@ -9533,7 +9216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>5</v>
       </c>
@@ -9562,7 +9245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>5</v>
       </c>
@@ -9591,7 +9274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>5</v>
       </c>
@@ -9620,7 +9303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>5</v>
       </c>
@@ -9649,7 +9332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>5</v>
       </c>
@@ -9677,11 +9360,8 @@
       <c r="I264" s="68">
         <v>2</v>
       </c>
-      <c r="J264" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>5</v>
       </c>
@@ -9709,11 +9389,8 @@
       <c r="I265" s="68">
         <v>5</v>
       </c>
-      <c r="J265" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>5</v>
       </c>
@@ -9741,11 +9418,8 @@
       <c r="I266" s="68">
         <v>2</v>
       </c>
-      <c r="J266" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>5</v>
       </c>
@@ -9774,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>5</v>
       </c>
@@ -9803,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>5</v>
       </c>
@@ -9832,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>5</v>
       </c>
@@ -9861,7 +9535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>5</v>
       </c>
@@ -9890,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>5</v>
       </c>
@@ -9919,7 +9593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>5</v>
       </c>
@@ -9948,7 +9622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>5</v>
       </c>
@@ -9977,7 +9651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>5</v>
       </c>
@@ -10006,7 +9680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>5</v>
       </c>
@@ -10035,7 +9709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>5</v>
       </c>
@@ -10064,7 +9738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>5</v>
       </c>
@@ -10093,7 +9767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>5</v>
       </c>
@@ -10122,7 +9796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>5</v>
       </c>
@@ -10151,7 +9825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>5</v>
       </c>
@@ -10180,7 +9854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>5</v>
       </c>
@@ -10208,11 +9882,8 @@
       <c r="I282" s="68">
         <v>2</v>
       </c>
-      <c r="J282" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>5</v>
       </c>
@@ -10240,11 +9911,8 @@
       <c r="I283" s="68">
         <v>3</v>
       </c>
-      <c r="J283" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>5</v>
       </c>
@@ -10272,11 +9940,8 @@
       <c r="I284" s="68">
         <v>1</v>
       </c>
-      <c r="J284" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>5</v>
       </c>
@@ -10304,11 +9969,8 @@
       <c r="I285" s="68">
         <v>3</v>
       </c>
-      <c r="J285" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>5</v>
       </c>
@@ -10336,11 +9998,8 @@
       <c r="I286" s="68">
         <v>1</v>
       </c>
-      <c r="J286" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>5</v>
       </c>
@@ -10368,11 +10027,8 @@
       <c r="I287" s="68">
         <v>1</v>
       </c>
-      <c r="J287" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>5</v>
       </c>
@@ -10400,11 +10056,8 @@
       <c r="I288" s="68">
         <v>1</v>
       </c>
-      <c r="J288" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>5</v>
       </c>
@@ -10432,11 +10085,8 @@
       <c r="I289" s="68">
         <v>1</v>
       </c>
-      <c r="J289" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>5</v>
       </c>
@@ -10464,11 +10114,8 @@
       <c r="I290" s="68">
         <v>1</v>
       </c>
-      <c r="J290" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>5</v>
       </c>
@@ -10496,11 +10143,8 @@
       <c r="I291" s="68">
         <v>1</v>
       </c>
-      <c r="J291" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>5</v>
       </c>
@@ -10528,11 +10172,8 @@
       <c r="I292" s="68">
         <v>1</v>
       </c>
-      <c r="J292" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>5</v>
       </c>
@@ -10560,11 +10201,8 @@
       <c r="I293" s="68">
         <v>1</v>
       </c>
-      <c r="J293" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>5</v>
       </c>
@@ -10592,11 +10230,8 @@
       <c r="I294" s="68">
         <v>2</v>
       </c>
-      <c r="J294" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>5</v>
       </c>
@@ -10624,11 +10259,8 @@
       <c r="I295" s="68">
         <v>1</v>
       </c>
-      <c r="J295" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>5</v>
       </c>
@@ -10656,9 +10288,8 @@
       <c r="I296" s="68">
         <v>1</v>
       </c>
-      <c r="J296" s="73"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>5</v>
       </c>
@@ -10686,9 +10317,8 @@
       <c r="I297" s="68">
         <v>4</v>
       </c>
-      <c r="J297" s="73"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>5</v>
       </c>
@@ -10716,9 +10346,8 @@
       <c r="I298" s="68">
         <v>4</v>
       </c>
-      <c r="J298" s="73"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>5</v>
       </c>
@@ -10746,9 +10375,8 @@
       <c r="I299" s="68">
         <v>4</v>
       </c>
-      <c r="J299" s="73"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>5</v>
       </c>
@@ -10776,9 +10404,8 @@
       <c r="I300" s="68">
         <v>2</v>
       </c>
-      <c r="J300" s="73"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>5</v>
       </c>
@@ -10806,9 +10433,8 @@
       <c r="I301" s="68">
         <v>4</v>
       </c>
-      <c r="J301" s="73"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>5</v>
       </c>
@@ -10836,9 +10462,8 @@
       <c r="I302" s="68">
         <v>3</v>
       </c>
-      <c r="J302" s="73"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>5</v>
       </c>
@@ -10866,9 +10491,8 @@
       <c r="I303" s="68">
         <v>2</v>
       </c>
-      <c r="J303" s="73"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>5</v>
       </c>
@@ -10896,9 +10520,8 @@
       <c r="I304" s="68">
         <v>4</v>
       </c>
-      <c r="J304" s="73"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>5</v>
       </c>
@@ -10926,11 +10549,8 @@
       <c r="I305" s="68">
         <v>2</v>
       </c>
-      <c r="J305" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>5</v>
       </c>
@@ -10958,11 +10578,8 @@
       <c r="I306" s="68">
         <v>1</v>
       </c>
-      <c r="J306" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>5</v>
       </c>
@@ -10990,11 +10607,8 @@
       <c r="I307" s="68">
         <v>3</v>
       </c>
-      <c r="J307" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>5</v>
       </c>
@@ -11022,11 +10636,8 @@
       <c r="I308" s="68">
         <v>5</v>
       </c>
-      <c r="J308" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>5</v>
       </c>
@@ -11055,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>5</v>
       </c>
@@ -11084,7 +10695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>5</v>
       </c>
@@ -11113,7 +10724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>5</v>
       </c>
@@ -11142,7 +10753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>5</v>
       </c>
@@ -11171,7 +10782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>5</v>
       </c>
@@ -11200,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>5</v>
       </c>
@@ -11229,7 +10840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>5</v>
       </c>
@@ -11258,7 +10869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>5</v>
       </c>
@@ -11287,7 +10898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>5</v>
       </c>
@@ -11316,7 +10927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>5</v>
       </c>
@@ -11344,11 +10955,8 @@
       <c r="I319" s="68">
         <v>2</v>
       </c>
-      <c r="J319" s="72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>5</v>
       </c>
@@ -11375,9 +10983,6 @@
       </c>
       <c r="I320" s="68">
         <v>4</v>
-      </c>
-      <c r="J320" s="72" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -12654,7 +12259,7 @@
   <dimension ref="A1:H371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D318" sqref="D318"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12677,7 +12282,7 @@
         <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
         <v>153</v>
@@ -12743,9 +12348,9 @@
       <c r="E3">
         <v>7</v>
       </c>
-      <c r="F3" s="71" t="str">
+      <c r="F3" s="71">
         <f>M!J3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="69">
         <f>VLOOKUP(M!A3,Table7[],2,FALSE)</f>
@@ -12773,9 +12378,9 @@
       <c r="E4">
         <v>7</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="71">
         <f>M!J4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="69">
         <f>VLOOKUP(M!A4,Table7[],2,FALSE)</f>
@@ -12803,9 +12408,9 @@
       <c r="E5">
         <v>7</v>
       </c>
-      <c r="F5" s="71" t="str">
+      <c r="F5" s="71">
         <f>M!J5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="69">
         <f>VLOOKUP(M!A5,Table7[],2,FALSE)</f>
@@ -12833,9 +12438,9 @@
       <c r="E6">
         <v>7</v>
       </c>
-      <c r="F6" s="71" t="str">
+      <c r="F6" s="71">
         <f>M!J6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="69">
         <f>VLOOKUP(M!A6,Table7[],2,FALSE)</f>
@@ -12863,9 +12468,9 @@
       <c r="E7">
         <v>7</v>
       </c>
-      <c r="F7" s="71" t="str">
+      <c r="F7" s="71">
         <f>M!J7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="69">
         <f>VLOOKUP(M!A7,Table7[],2,FALSE)</f>
@@ -12893,9 +12498,9 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="71" t="str">
+      <c r="F8" s="71">
         <f>M!J8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="69">
         <f>VLOOKUP(M!A8,Table7[],2,FALSE)</f>
@@ -12923,9 +12528,9 @@
       <c r="E9">
         <v>7</v>
       </c>
-      <c r="F9" s="71" t="str">
+      <c r="F9" s="71">
         <f>M!J9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="69">
         <f>VLOOKUP(M!A9,Table7[],2,FALSE)</f>
@@ -12953,9 +12558,9 @@
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="71" t="str">
+      <c r="F10" s="71">
         <f>M!J10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="69">
         <f>VLOOKUP(M!A10,Table7[],2,FALSE)</f>
@@ -12983,9 +12588,9 @@
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" s="71" t="str">
+      <c r="F11" s="71">
         <f>M!J11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="69">
         <f>VLOOKUP(M!A11,Table7[],2,FALSE)</f>
@@ -13013,9 +12618,9 @@
       <c r="E12">
         <v>7</v>
       </c>
-      <c r="F12" s="71" t="str">
+      <c r="F12" s="71">
         <f>M!J12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="69">
         <f>VLOOKUP(M!A12,Table7[],2,FALSE)</f>
@@ -13073,9 +12678,9 @@
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14" s="71" t="str">
+      <c r="F14" s="71">
         <f>M!J14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="69">
         <f>VLOOKUP(M!A14,Table7[],2,FALSE)</f>
@@ -13103,9 +12708,9 @@
       <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15" s="71" t="str">
+      <c r="F15" s="71">
         <f>M!J15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="69">
         <f>VLOOKUP(M!A15,Table7[],2,FALSE)</f>
@@ -13133,9 +12738,9 @@
       <c r="E16">
         <v>7</v>
       </c>
-      <c r="F16" s="71" t="str">
+      <c r="F16" s="71">
         <f>M!J16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="69">
         <f>VLOOKUP(M!A16,Table7[],2,FALSE)</f>
@@ -13163,9 +12768,9 @@
       <c r="E17">
         <v>7</v>
       </c>
-      <c r="F17" s="71" t="str">
+      <c r="F17" s="71">
         <f>M!J17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="69">
         <f>VLOOKUP(M!A17,Table7[],2,FALSE)</f>
@@ -13193,9 +12798,9 @@
       <c r="E18">
         <v>7</v>
       </c>
-      <c r="F18" s="71" t="str">
+      <c r="F18" s="71">
         <f>M!J18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="69">
         <f>VLOOKUP(M!A18,Table7[],2,FALSE)</f>
@@ -13223,9 +12828,9 @@
       <c r="E19">
         <v>7</v>
       </c>
-      <c r="F19" s="71" t="str">
+      <c r="F19" s="71">
         <f>M!J19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="69">
         <f>VLOOKUP(M!A19,Table7[],2,FALSE)</f>
@@ -13253,9 +12858,9 @@
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20" s="71" t="str">
+      <c r="F20" s="71">
         <f>M!J20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="69">
         <f>VLOOKUP(M!A20,Table7[],2,FALSE)</f>
@@ -13283,9 +12888,9 @@
       <c r="E21">
         <v>7</v>
       </c>
-      <c r="F21" s="71" t="str">
+      <c r="F21" s="71">
         <f>M!J21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="69">
         <f>VLOOKUP(M!A21,Table7[],2,FALSE)</f>
@@ -13313,9 +12918,9 @@
       <c r="E22">
         <v>7</v>
       </c>
-      <c r="F22" s="71" t="str">
+      <c r="F22" s="71">
         <f>M!J22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="69">
         <f>VLOOKUP(M!A22,Table7[],2,FALSE)</f>
@@ -13343,9 +12948,9 @@
       <c r="E23">
         <v>7</v>
       </c>
-      <c r="F23" s="71" t="str">
+      <c r="F23" s="71">
         <f>M!J23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="69">
         <f>VLOOKUP(M!A23,Table7[],2,FALSE)</f>
@@ -14483,9 +14088,9 @@
       <c r="E61">
         <v>7</v>
       </c>
-      <c r="F61" s="71" t="str">
+      <c r="F61" s="71">
         <f>M!J61</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="69">
         <f>VLOOKUP(M!A61,Table7[],2,FALSE)</f>
@@ -14513,9 +14118,9 @@
       <c r="E62">
         <v>7</v>
       </c>
-      <c r="F62" s="71" t="str">
+      <c r="F62" s="71">
         <f>M!J62</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="69">
         <f>VLOOKUP(M!A62,Table7[],2,FALSE)</f>
@@ -14843,9 +14448,9 @@
       <c r="E73">
         <v>7</v>
       </c>
-      <c r="F73" s="71" t="str">
+      <c r="F73" s="71">
         <f>M!J73</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="69">
         <f>VLOOKUP(M!A73,Table7[],2,FALSE)</f>
@@ -14873,9 +14478,9 @@
       <c r="E74">
         <v>7</v>
       </c>
-      <c r="F74" s="71" t="str">
+      <c r="F74" s="71">
         <f>M!J74</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="69">
         <f>VLOOKUP(M!A74,Table7[],2,FALSE)</f>
@@ -14903,9 +14508,9 @@
       <c r="E75">
         <v>7</v>
       </c>
-      <c r="F75" s="71" t="str">
+      <c r="F75" s="71">
         <f>M!J75</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="69">
         <f>VLOOKUP(M!A75,Table7[],2,FALSE)</f>
@@ -14933,9 +14538,9 @@
       <c r="E76">
         <v>7</v>
       </c>
-      <c r="F76" s="71" t="str">
+      <c r="F76" s="71">
         <f>M!J76</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="69">
         <f>VLOOKUP(M!A76,Table7[],2,FALSE)</f>
@@ -14963,9 +14568,9 @@
       <c r="E77">
         <v>7</v>
       </c>
-      <c r="F77" s="71" t="str">
+      <c r="F77" s="71">
         <f>M!J77</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="69">
         <f>VLOOKUP(M!A77,Table7[],2,FALSE)</f>
@@ -14993,9 +14598,9 @@
       <c r="E78">
         <v>7</v>
       </c>
-      <c r="F78" s="71" t="str">
+      <c r="F78" s="71">
         <f>M!J78</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="69">
         <f>VLOOKUP(M!A78,Table7[],2,FALSE)</f>
@@ -15023,9 +14628,9 @@
       <c r="E79">
         <v>7</v>
       </c>
-      <c r="F79" s="71" t="str">
+      <c r="F79" s="71">
         <f>M!J79</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" s="69">
         <f>VLOOKUP(M!A79,Table7[],2,FALSE)</f>
@@ -15053,9 +14658,9 @@
       <c r="E80">
         <v>7</v>
       </c>
-      <c r="F80" s="71" t="str">
+      <c r="F80" s="71">
         <f>M!J80</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="69">
         <f>VLOOKUP(M!A80,Table7[],2,FALSE)</f>
@@ -15083,9 +14688,9 @@
       <c r="E81">
         <v>7</v>
       </c>
-      <c r="F81" s="71" t="str">
+      <c r="F81" s="71">
         <f>M!J81</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="69">
         <f>VLOOKUP(M!A81,Table7[],2,FALSE)</f>
@@ -15113,9 +14718,9 @@
       <c r="E82">
         <v>7</v>
       </c>
-      <c r="F82" s="71" t="str">
+      <c r="F82" s="71">
         <f>M!J82</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="69">
         <f>VLOOKUP(M!A82,Table7[],2,FALSE)</f>
@@ -15143,9 +14748,9 @@
       <c r="E83">
         <v>7</v>
       </c>
-      <c r="F83" s="71" t="str">
+      <c r="F83" s="71">
         <f>M!J83</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="69">
         <f>VLOOKUP(M!A83,Table7[],2,FALSE)</f>
@@ -15173,9 +14778,9 @@
       <c r="E84">
         <v>7</v>
       </c>
-      <c r="F84" s="71" t="str">
+      <c r="F84" s="71">
         <f>M!J84</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="69">
         <f>VLOOKUP(M!A84,Table7[],2,FALSE)</f>
@@ -15203,9 +14808,9 @@
       <c r="E85">
         <v>7</v>
       </c>
-      <c r="F85" s="71" t="str">
+      <c r="F85" s="71">
         <f>M!J85</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="69">
         <f>VLOOKUP(M!A85,Table7[],2,FALSE)</f>
@@ -15233,9 +14838,9 @@
       <c r="E86">
         <v>7</v>
       </c>
-      <c r="F86" s="71" t="str">
+      <c r="F86" s="71">
         <f>M!J86</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="69">
         <f>VLOOKUP(M!A86,Table7[],2,FALSE)</f>
@@ -15263,9 +14868,9 @@
       <c r="E87">
         <v>7</v>
       </c>
-      <c r="F87" s="71" t="str">
+      <c r="F87" s="71">
         <f>M!J87</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="69">
         <f>VLOOKUP(M!A87,Table7[],2,FALSE)</f>
@@ -15293,9 +14898,9 @@
       <c r="E88">
         <v>7</v>
       </c>
-      <c r="F88" s="71" t="str">
+      <c r="F88" s="71">
         <f>M!J88</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="69">
         <f>VLOOKUP(M!A88,Table7[],2,FALSE)</f>
@@ -15323,9 +14928,9 @@
       <c r="E89">
         <v>7</v>
       </c>
-      <c r="F89" s="71" t="str">
+      <c r="F89" s="71">
         <f>M!J89</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="69">
         <f>VLOOKUP(M!A89,Table7[],2,FALSE)</f>
@@ -15893,9 +15498,9 @@
       <c r="E108">
         <v>7</v>
       </c>
-      <c r="F108" s="71" t="str">
+      <c r="F108" s="71">
         <f>M!J108</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" s="69">
         <f>VLOOKUP(M!A108,Table7[],2,FALSE)</f>
@@ -15923,9 +15528,9 @@
       <c r="E109">
         <v>7</v>
       </c>
-      <c r="F109" s="71" t="str">
+      <c r="F109" s="71">
         <f>M!J109</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" s="69">
         <f>VLOOKUP(M!A109,Table7[],2,FALSE)</f>
@@ -15953,9 +15558,9 @@
       <c r="E110">
         <v>7</v>
       </c>
-      <c r="F110" s="71" t="str">
+      <c r="F110" s="71">
         <f>M!J110</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" s="69">
         <f>VLOOKUP(M!A110,Table7[],2,FALSE)</f>
@@ -15983,9 +15588,9 @@
       <c r="E111">
         <v>7</v>
       </c>
-      <c r="F111" s="71" t="str">
+      <c r="F111" s="71">
         <f>M!J111</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="69">
         <f>VLOOKUP(M!A111,Table7[],2,FALSE)</f>
@@ -16013,9 +15618,9 @@
       <c r="E112">
         <v>7</v>
       </c>
-      <c r="F112" s="71" t="str">
+      <c r="F112" s="71">
         <f>M!J112</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="69">
         <f>VLOOKUP(M!A112,Table7[],2,FALSE)</f>
@@ -16043,9 +15648,9 @@
       <c r="E113">
         <v>7</v>
       </c>
-      <c r="F113" s="71" t="str">
+      <c r="F113" s="71">
         <f>M!J113</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" s="69">
         <f>VLOOKUP(M!A113,Table7[],2,FALSE)</f>
@@ -16073,9 +15678,9 @@
       <c r="E114">
         <v>7</v>
       </c>
-      <c r="F114" s="71" t="str">
+      <c r="F114" s="71">
         <f>M!J114</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="69">
         <f>VLOOKUP(M!A114,Table7[],2,FALSE)</f>
@@ -16103,9 +15708,9 @@
       <c r="E115">
         <v>7</v>
       </c>
-      <c r="F115" s="71" t="str">
+      <c r="F115" s="71">
         <f>M!J115</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="69">
         <f>VLOOKUP(M!A115,Table7[],2,FALSE)</f>
@@ -16133,9 +15738,9 @@
       <c r="E116">
         <v>7</v>
       </c>
-      <c r="F116" s="71" t="str">
+      <c r="F116" s="71">
         <f>M!J116</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="69">
         <f>VLOOKUP(M!A116,Table7[],2,FALSE)</f>
@@ -16163,9 +15768,9 @@
       <c r="E117">
         <v>7</v>
       </c>
-      <c r="F117" s="71" t="str">
+      <c r="F117" s="71">
         <f>M!J117</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="69">
         <f>VLOOKUP(M!A117,Table7[],2,FALSE)</f>
@@ -16193,9 +15798,9 @@
       <c r="E118">
         <v>7</v>
       </c>
-      <c r="F118" s="71" t="str">
+      <c r="F118" s="71">
         <f>M!J118</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="69">
         <f>VLOOKUP(M!A118,Table7[],2,FALSE)</f>
@@ -16223,9 +15828,9 @@
       <c r="E119">
         <v>7</v>
       </c>
-      <c r="F119" s="71" t="str">
+      <c r="F119" s="71">
         <f>M!J119</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="69">
         <f>VLOOKUP(M!A119,Table7[],2,FALSE)</f>
@@ -16253,9 +15858,9 @@
       <c r="E120">
         <v>7</v>
       </c>
-      <c r="F120" s="71" t="str">
+      <c r="F120" s="71">
         <f>M!J120</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="69">
         <f>VLOOKUP(M!A120,Table7[],2,FALSE)</f>
@@ -16283,9 +15888,9 @@
       <c r="E121">
         <v>7</v>
       </c>
-      <c r="F121" s="71" t="str">
+      <c r="F121" s="71">
         <f>M!J121</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="69">
         <f>VLOOKUP(M!A121,Table7[],2,FALSE)</f>
@@ -16313,9 +15918,9 @@
       <c r="E122">
         <v>7</v>
       </c>
-      <c r="F122" s="71" t="str">
+      <c r="F122" s="71">
         <f>M!J122</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" s="69">
         <f>VLOOKUP(M!A122,Table7[],2,FALSE)</f>
@@ -16343,9 +15948,9 @@
       <c r="E123">
         <v>7</v>
       </c>
-      <c r="F123" s="71" t="str">
+      <c r="F123" s="71">
         <f>M!J123</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" s="69">
         <f>VLOOKUP(M!A123,Table7[],2,FALSE)</f>
@@ -16373,9 +15978,9 @@
       <c r="E124">
         <v>7</v>
       </c>
-      <c r="F124" s="71" t="str">
+      <c r="F124" s="71">
         <f>M!J124</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" s="69">
         <f>VLOOKUP(M!A124,Table7[],2,FALSE)</f>
@@ -16403,9 +16008,9 @@
       <c r="E125">
         <v>7</v>
       </c>
-      <c r="F125" s="71" t="str">
+      <c r="F125" s="71">
         <f>M!J125</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" s="69">
         <f>VLOOKUP(M!A125,Table7[],2,FALSE)</f>
@@ -16433,9 +16038,9 @@
       <c r="E126">
         <v>7</v>
       </c>
-      <c r="F126" s="71" t="str">
+      <c r="F126" s="71">
         <f>M!J126</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" s="69">
         <f>VLOOKUP(M!A126,Table7[],2,FALSE)</f>
@@ -16583,9 +16188,9 @@
       <c r="E131">
         <v>7</v>
       </c>
-      <c r="F131" s="71" t="str">
+      <c r="F131" s="71">
         <f>M!J131</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="69">
         <f>VLOOKUP(M!A131,Table7[],2,FALSE)</f>
@@ -16613,9 +16218,9 @@
       <c r="E132">
         <v>7</v>
       </c>
-      <c r="F132" s="71" t="str">
+      <c r="F132" s="71">
         <f>M!J132</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" s="69">
         <f>VLOOKUP(M!A132,Table7[],2,FALSE)</f>
@@ -16643,9 +16248,9 @@
       <c r="E133">
         <v>7</v>
       </c>
-      <c r="F133" s="71" t="str">
+      <c r="F133" s="71">
         <f>M!J133</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" s="69">
         <f>VLOOKUP(M!A133,Table7[],2,FALSE)</f>
@@ -16823,9 +16428,9 @@
       <c r="E139">
         <v>7</v>
       </c>
-      <c r="F139" s="71" t="str">
+      <c r="F139" s="71">
         <f>M!J139</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" s="69">
         <f>VLOOKUP(M!A139,Table7[],2,FALSE)</f>
@@ -16853,9 +16458,9 @@
       <c r="E140">
         <v>7</v>
       </c>
-      <c r="F140" s="71" t="str">
+      <c r="F140" s="71">
         <f>M!J140</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" s="69">
         <f>VLOOKUP(M!A140,Table7[],2,FALSE)</f>
@@ -16883,9 +16488,9 @@
       <c r="E141">
         <v>7</v>
       </c>
-      <c r="F141" s="71" t="str">
+      <c r="F141" s="71">
         <f>M!J141</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" s="69">
         <f>VLOOKUP(M!A141,Table7[],2,FALSE)</f>
@@ -16913,9 +16518,9 @@
       <c r="E142">
         <v>7</v>
       </c>
-      <c r="F142" s="71" t="str">
+      <c r="F142" s="71">
         <f>M!J142</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" s="69">
         <f>VLOOKUP(M!A142,Table7[],2,FALSE)</f>
@@ -16943,9 +16548,9 @@
       <c r="E143">
         <v>7</v>
       </c>
-      <c r="F143" s="71" t="str">
+      <c r="F143" s="71">
         <f>M!J143</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" s="69">
         <f>VLOOKUP(M!A143,Table7[],2,FALSE)</f>
@@ -16973,9 +16578,9 @@
       <c r="E144">
         <v>7</v>
       </c>
-      <c r="F144" s="71" t="str">
+      <c r="F144" s="71">
         <f>M!J144</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" s="69">
         <f>VLOOKUP(M!A144,Table7[],2,FALSE)</f>
@@ -17003,9 +16608,9 @@
       <c r="E145">
         <v>7</v>
       </c>
-      <c r="F145" s="71" t="str">
+      <c r="F145" s="71">
         <f>M!J145</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" s="69">
         <f>VLOOKUP(M!A145,Table7[],2,FALSE)</f>
@@ -17033,9 +16638,9 @@
       <c r="E146">
         <v>7</v>
       </c>
-      <c r="F146" s="71" t="str">
+      <c r="F146" s="71">
         <f>M!J146</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" s="69">
         <f>VLOOKUP(M!A146,Table7[],2,FALSE)</f>
@@ -17093,9 +16698,9 @@
       <c r="E148">
         <v>7</v>
       </c>
-      <c r="F148" s="71" t="str">
+      <c r="F148" s="71">
         <f>M!J148</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" s="69">
         <f>VLOOKUP(M!A148,Table7[],2,FALSE)</f>
@@ -17123,9 +16728,9 @@
       <c r="E149">
         <v>7</v>
       </c>
-      <c r="F149" s="71" t="str">
+      <c r="F149" s="71">
         <f>M!J149</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" s="69">
         <f>VLOOKUP(M!A149,Table7[],2,FALSE)</f>
@@ -17153,9 +16758,9 @@
       <c r="E150">
         <v>7</v>
       </c>
-      <c r="F150" s="71" t="str">
+      <c r="F150" s="71">
         <f>M!J150</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" s="69">
         <f>VLOOKUP(M!A150,Table7[],2,FALSE)</f>
@@ -17183,9 +16788,9 @@
       <c r="E151">
         <v>7</v>
       </c>
-      <c r="F151" s="71" t="str">
+      <c r="F151" s="71">
         <f>M!J151</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" s="69">
         <f>VLOOKUP(M!A151,Table7[],2,FALSE)</f>
@@ -17213,9 +16818,9 @@
       <c r="E152">
         <v>7</v>
       </c>
-      <c r="F152" s="71" t="str">
+      <c r="F152" s="71">
         <f>M!J152</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" s="69">
         <f>VLOOKUP(M!A152,Table7[],2,FALSE)</f>
@@ -17243,9 +16848,9 @@
       <c r="E153">
         <v>7</v>
       </c>
-      <c r="F153" s="71" t="str">
+      <c r="F153" s="71">
         <f>M!J153</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" s="69">
         <f>VLOOKUP(M!A153,Table7[],2,FALSE)</f>
@@ -17273,9 +16878,9 @@
       <c r="E154">
         <v>7</v>
       </c>
-      <c r="F154" s="71" t="str">
+      <c r="F154" s="71">
         <f>M!J154</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" s="69">
         <f>VLOOKUP(M!A154,Table7[],2,FALSE)</f>
@@ -17303,9 +16908,9 @@
       <c r="E155">
         <v>7</v>
       </c>
-      <c r="F155" s="71" t="str">
+      <c r="F155" s="71">
         <f>M!J155</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" s="69">
         <f>VLOOKUP(M!A155,Table7[],2,FALSE)</f>
@@ -17333,9 +16938,9 @@
       <c r="E156">
         <v>7</v>
       </c>
-      <c r="F156" s="71" t="str">
+      <c r="F156" s="71">
         <f>M!J156</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" s="69">
         <f>VLOOKUP(M!A156,Table7[],2,FALSE)</f>
@@ -18743,9 +18348,9 @@
       <c r="E203">
         <v>7</v>
       </c>
-      <c r="F203" s="71" t="str">
+      <c r="F203" s="71">
         <f>M!J203</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" s="69">
         <f>VLOOKUP(M!A203,Table7[],2,FALSE)</f>
@@ -18983,9 +18588,9 @@
       <c r="E211">
         <v>7</v>
       </c>
-      <c r="F211" s="71" t="str">
+      <c r="F211" s="71">
         <f>M!J211</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211" s="69">
         <f>VLOOKUP(M!A211,Table7[],2,FALSE)</f>
@@ -19013,9 +18618,9 @@
       <c r="E212">
         <v>7</v>
       </c>
-      <c r="F212" s="71" t="str">
+      <c r="F212" s="71">
         <f>M!J212</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212" s="69">
         <f>VLOOKUP(M!A212,Table7[],2,FALSE)</f>
@@ -19043,9 +18648,9 @@
       <c r="E213">
         <v>7</v>
       </c>
-      <c r="F213" s="71" t="str">
+      <c r="F213" s="71">
         <f>M!J213</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213" s="69">
         <f>VLOOKUP(M!A213,Table7[],2,FALSE)</f>
@@ -19073,9 +18678,9 @@
       <c r="E214">
         <v>7</v>
       </c>
-      <c r="F214" s="71" t="str">
+      <c r="F214" s="71">
         <f>M!J214</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214" s="69">
         <f>VLOOKUP(M!A214,Table7[],2,FALSE)</f>
@@ -19103,9 +18708,9 @@
       <c r="E215">
         <v>7</v>
       </c>
-      <c r="F215" s="71" t="str">
+      <c r="F215" s="71">
         <f>M!J215</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" s="69">
         <f>VLOOKUP(M!A215,Table7[],2,FALSE)</f>
@@ -19283,9 +18888,9 @@
       <c r="E221">
         <v>7</v>
       </c>
-      <c r="F221" s="71" t="str">
+      <c r="F221" s="71">
         <f>M!J221</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" s="69">
         <f>VLOOKUP(M!A221,Table7[],2,FALSE)</f>
@@ -19313,9 +18918,9 @@
       <c r="E222">
         <v>7</v>
       </c>
-      <c r="F222" s="71" t="str">
+      <c r="F222" s="71">
         <f>M!J222</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222" s="69">
         <f>VLOOKUP(M!A222,Table7[],2,FALSE)</f>
@@ -19343,9 +18948,9 @@
       <c r="E223">
         <v>7</v>
       </c>
-      <c r="F223" s="71" t="str">
+      <c r="F223" s="71">
         <f>M!J223</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223" s="69">
         <f>VLOOKUP(M!A223,Table7[],2,FALSE)</f>
@@ -19373,9 +18978,9 @@
       <c r="E224">
         <v>7</v>
       </c>
-      <c r="F224" s="71" t="str">
+      <c r="F224" s="71">
         <f>M!J224</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" s="69">
         <f>VLOOKUP(M!A224,Table7[],2,FALSE)</f>
@@ -19553,9 +19158,9 @@
       <c r="E230">
         <v>7</v>
       </c>
-      <c r="F230" s="71" t="str">
+      <c r="F230" s="71">
         <f>M!J230</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230" s="69">
         <f>VLOOKUP(M!A230,Table7[],2,FALSE)</f>
@@ -19583,9 +19188,9 @@
       <c r="E231">
         <v>7</v>
       </c>
-      <c r="F231" s="71" t="str">
+      <c r="F231" s="71">
         <f>M!J231</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231" s="69">
         <f>VLOOKUP(M!A231,Table7[],2,FALSE)</f>
@@ -20213,9 +19818,9 @@
       <c r="E252">
         <v>7</v>
       </c>
-      <c r="F252" s="71" t="str">
+      <c r="F252" s="71">
         <f>M!J252</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252" s="69">
         <f>VLOOKUP(M!A252,Table7[],2,FALSE)</f>
@@ -20243,9 +19848,9 @@
       <c r="E253">
         <v>7</v>
       </c>
-      <c r="F253" s="71" t="str">
+      <c r="F253" s="71">
         <f>M!J253</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253" s="69">
         <f>VLOOKUP(M!A253,Table7[],2,FALSE)</f>
@@ -20273,9 +19878,9 @@
       <c r="E254">
         <v>7</v>
       </c>
-      <c r="F254" s="71" t="str">
+      <c r="F254" s="71">
         <f>M!J254</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" s="69">
         <f>VLOOKUP(M!A254,Table7[],2,FALSE)</f>
@@ -20303,9 +19908,9 @@
       <c r="E255">
         <v>7</v>
       </c>
-      <c r="F255" s="71" t="str">
+      <c r="F255" s="71">
         <f>M!J255</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255" s="69">
         <f>VLOOKUP(M!A255,Table7[],2,FALSE)</f>
@@ -20333,9 +19938,9 @@
       <c r="E256">
         <v>7</v>
       </c>
-      <c r="F256" s="71" t="str">
+      <c r="F256" s="71">
         <f>M!J256</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256" s="69">
         <f>VLOOKUP(M!A256,Table7[],2,FALSE)</f>
@@ -20363,9 +19968,9 @@
       <c r="E257">
         <v>7</v>
       </c>
-      <c r="F257" s="71" t="str">
+      <c r="F257" s="71">
         <f>M!J257</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" s="69">
         <f>VLOOKUP(M!A257,Table7[],2,FALSE)</f>
@@ -20393,9 +19998,9 @@
       <c r="E258">
         <v>7</v>
       </c>
-      <c r="F258" s="71" t="str">
+      <c r="F258" s="71">
         <f>M!J258</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258" s="69">
         <f>VLOOKUP(M!A258,Table7[],2,FALSE)</f>
@@ -20573,9 +20178,9 @@
       <c r="E264">
         <v>7</v>
       </c>
-      <c r="F264" s="71" t="str">
+      <c r="F264" s="71">
         <f>M!J264</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G264" s="69">
         <f>VLOOKUP(M!A264,Table7[],2,FALSE)</f>
@@ -20603,9 +20208,9 @@
       <c r="E265">
         <v>7</v>
       </c>
-      <c r="F265" s="71" t="str">
+      <c r="F265" s="71">
         <f>M!J265</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" s="69">
         <f>VLOOKUP(M!A265,Table7[],2,FALSE)</f>
@@ -20633,9 +20238,9 @@
       <c r="E266">
         <v>7</v>
       </c>
-      <c r="F266" s="71" t="str">
+      <c r="F266" s="71">
         <f>M!J266</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G266" s="69">
         <f>VLOOKUP(M!A266,Table7[],2,FALSE)</f>
@@ -21113,9 +20718,9 @@
       <c r="E282">
         <v>7</v>
       </c>
-      <c r="F282" s="71" t="str">
+      <c r="F282" s="71">
         <f>M!J282</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G282" s="69">
         <f>VLOOKUP(M!A282,Table7[],2,FALSE)</f>
@@ -21143,9 +20748,9 @@
       <c r="E283">
         <v>7</v>
       </c>
-      <c r="F283" s="71" t="str">
+      <c r="F283" s="71">
         <f>M!J283</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283" s="69">
         <f>VLOOKUP(M!A283,Table7[],2,FALSE)</f>
@@ -21173,9 +20778,9 @@
       <c r="E284">
         <v>7</v>
       </c>
-      <c r="F284" s="71" t="str">
+      <c r="F284" s="71">
         <f>M!J284</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G284" s="69">
         <f>VLOOKUP(M!A284,Table7[],2,FALSE)</f>
@@ -21203,9 +20808,9 @@
       <c r="E285">
         <v>7</v>
       </c>
-      <c r="F285" s="71" t="str">
+      <c r="F285" s="71">
         <f>M!J285</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G285" s="69">
         <f>VLOOKUP(M!A285,Table7[],2,FALSE)</f>
@@ -21233,9 +20838,9 @@
       <c r="E286">
         <v>7</v>
       </c>
-      <c r="F286" s="71" t="str">
+      <c r="F286" s="71">
         <f>M!J286</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G286" s="69">
         <f>VLOOKUP(M!A286,Table7[],2,FALSE)</f>
@@ -21263,9 +20868,9 @@
       <c r="E287">
         <v>7</v>
       </c>
-      <c r="F287" s="71" t="str">
+      <c r="F287" s="71">
         <f>M!J287</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G287" s="69">
         <f>VLOOKUP(M!A287,Table7[],2,FALSE)</f>
@@ -21293,9 +20898,9 @@
       <c r="E288">
         <v>7</v>
       </c>
-      <c r="F288" s="71" t="str">
+      <c r="F288" s="71">
         <f>M!J288</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="69">
         <f>VLOOKUP(M!A288,Table7[],2,FALSE)</f>
@@ -21323,9 +20928,9 @@
       <c r="E289">
         <v>7</v>
       </c>
-      <c r="F289" s="71" t="str">
+      <c r="F289" s="71">
         <f>M!J289</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" s="69">
         <f>VLOOKUP(M!A289,Table7[],2,FALSE)</f>
@@ -21353,9 +20958,9 @@
       <c r="E290">
         <v>7</v>
       </c>
-      <c r="F290" s="71" t="str">
+      <c r="F290" s="71">
         <f>M!J290</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G290" s="69">
         <f>VLOOKUP(M!A290,Table7[],2,FALSE)</f>
@@ -21383,9 +20988,9 @@
       <c r="E291">
         <v>7</v>
       </c>
-      <c r="F291" s="71" t="str">
+      <c r="F291" s="71">
         <f>M!J291</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291" s="69">
         <f>VLOOKUP(M!A291,Table7[],2,FALSE)</f>
@@ -21413,9 +21018,9 @@
       <c r="E292">
         <v>7</v>
       </c>
-      <c r="F292" s="71" t="str">
+      <c r="F292" s="71">
         <f>M!J292</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292" s="69">
         <f>VLOOKUP(M!A292,Table7[],2,FALSE)</f>
@@ -21443,9 +21048,9 @@
       <c r="E293">
         <v>7</v>
       </c>
-      <c r="F293" s="71" t="str">
+      <c r="F293" s="71">
         <f>M!J293</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G293" s="69">
         <f>VLOOKUP(M!A293,Table7[],2,FALSE)</f>
@@ -21473,9 +21078,9 @@
       <c r="E294">
         <v>7</v>
       </c>
-      <c r="F294" s="71" t="str">
+      <c r="F294" s="71">
         <f>M!J294</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G294" s="69">
         <f>VLOOKUP(M!A294,Table7[],2,FALSE)</f>
@@ -21503,9 +21108,9 @@
       <c r="E295">
         <v>7</v>
       </c>
-      <c r="F295" s="71" t="str">
+      <c r="F295" s="71">
         <f>M!J295</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295" s="69">
         <f>VLOOKUP(M!A295,Table7[],2,FALSE)</f>
@@ -21803,9 +21408,9 @@
       <c r="E305">
         <v>7</v>
       </c>
-      <c r="F305" s="71" t="str">
+      <c r="F305" s="71">
         <f>M!J305</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305" s="69">
         <f>VLOOKUP(M!A305,Table7[],2,FALSE)</f>
@@ -21833,9 +21438,9 @@
       <c r="E306">
         <v>7</v>
       </c>
-      <c r="F306" s="71" t="str">
+      <c r="F306" s="71">
         <f>M!J306</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G306" s="69">
         <f>VLOOKUP(M!A306,Table7[],2,FALSE)</f>
@@ -21863,9 +21468,9 @@
       <c r="E307">
         <v>7</v>
       </c>
-      <c r="F307" s="71" t="str">
+      <c r="F307" s="71">
         <f>M!J307</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307" s="69">
         <f>VLOOKUP(M!A307,Table7[],2,FALSE)</f>
@@ -21893,9 +21498,9 @@
       <c r="E308">
         <v>7</v>
       </c>
-      <c r="F308" s="71" t="str">
+      <c r="F308" s="71">
         <f>M!J308</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G308" s="69">
         <f>VLOOKUP(M!A308,Table7[],2,FALSE)</f>
@@ -22223,9 +21828,9 @@
       <c r="E319">
         <v>7</v>
       </c>
-      <c r="F319" s="71" t="str">
+      <c r="F319" s="71">
         <f>M!J319</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="69">
         <f>VLOOKUP(M!A319,Table7[],2,FALSE)</f>
@@ -22253,9 +21858,9 @@
       <c r="E320">
         <v>7</v>
       </c>
-      <c r="F320" s="71" t="str">
+      <c r="F320" s="71">
         <f>M!J320</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G320" s="69">
         <f>VLOOKUP(M!A320,Table7[],2,FALSE)</f>
@@ -23812,7 +23417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB29274B-2A97-42BA-A638-8E49DA96B4E0}">
   <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -33506,7 +33111,7 @@
         <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
         <v>158</v>

--- a/php/config/database/import_dati_20190704.xlsx
+++ b/php/config/database/import_dati_20190704.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lavoro\GitHub\OxMosys\php\config\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C015716-452B-4165-AD6D-B935AC0C2C91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DFD116-C1A9-4963-A316-778A871A1667}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13575" yWindow="3735" windowWidth="24555" windowHeight="16965" xr2:uid="{D3D00E6F-0421-4317-BB00-4A89BB4C4319}"/>
+    <workbookView xWindow="9450" yWindow="1515" windowWidth="24555" windowHeight="16965" activeTab="4" xr2:uid="{D3D00E6F-0421-4317-BB00-4A89BB4C4319}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="APP_WAREHOUSE_MOVEMENTS" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">M!$A$1:$I$371</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">M!$A$1:$J$371</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1369,8 +1369,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{60C021A0-1232-4237-9CF4-98E5109F68CD}" name="Table467" displayName="Table467" ref="A1:F320" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F320" xr:uid="{5CA16503-E99A-4787-ABE9-4022BA5F3950}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{60C021A0-1232-4237-9CF4-98E5109F68CD}" name="Table467" displayName="Table467" ref="A1:F371" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F371" xr:uid="{5CA16503-E99A-4787-ABE9-4022BA5F3950}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7BA50E57-B7E5-4F67-90D7-D9AB83169EA5}" name="APP_WAREHOUSE_ITEMS_ID" dataDxfId="5">
       <calculatedColumnFormula>Table4[[#This Row],[ID]]</calculatedColumnFormula>
@@ -1686,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8EAEEA-4F91-4A53-8AE2-F4CBBA86A159}">
   <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A304" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12085,6 +12085,7 @@
     <protectedRange sqref="H2:H371" name="Intervallo13"/>
     <protectedRange sqref="F2:F371" name="Intervallo14"/>
   </protectedRanges>
+  <autoFilter ref="A1:J371" xr:uid="{44A09A0F-2AB1-4A1D-9B26-93B6894F40F8}"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -12095,7 +12096,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12258,8 +12259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101FC88B-7797-420D-BF58-D11D7AC3B36A}">
   <dimension ref="A1:H371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="E371" sqref="E371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33081,10 +33082,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EFF910-9143-4BE5-BDDE-EBAB844970CD}">
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40135,6 +40136,1128 @@
         <v>1</v>
       </c>
     </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>320</v>
+      </c>
+      <c r="B321" s="69">
+        <f>M!I321</f>
+        <v>1000</v>
+      </c>
+      <c r="C321">
+        <v>7</v>
+      </c>
+      <c r="D321">
+        <v>7</v>
+      </c>
+      <c r="E321">
+        <v>7</v>
+      </c>
+      <c r="F321" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>321</v>
+      </c>
+      <c r="B322" s="69">
+        <f>M!I322</f>
+        <v>1000</v>
+      </c>
+      <c r="C322">
+        <v>7</v>
+      </c>
+      <c r="D322">
+        <v>7</v>
+      </c>
+      <c r="E322">
+        <v>7</v>
+      </c>
+      <c r="F322" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>322</v>
+      </c>
+      <c r="B323" s="69">
+        <f>M!I323</f>
+        <v>1000</v>
+      </c>
+      <c r="C323">
+        <v>7</v>
+      </c>
+      <c r="D323">
+        <v>7</v>
+      </c>
+      <c r="E323">
+        <v>7</v>
+      </c>
+      <c r="F323" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>323</v>
+      </c>
+      <c r="B324" s="69">
+        <f>M!I324</f>
+        <v>1000</v>
+      </c>
+      <c r="C324">
+        <v>7</v>
+      </c>
+      <c r="D324">
+        <v>7</v>
+      </c>
+      <c r="E324">
+        <v>7</v>
+      </c>
+      <c r="F324" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>324</v>
+      </c>
+      <c r="B325" s="69">
+        <f>M!I325</f>
+        <v>1000</v>
+      </c>
+      <c r="C325">
+        <v>7</v>
+      </c>
+      <c r="D325">
+        <v>7</v>
+      </c>
+      <c r="E325">
+        <v>7</v>
+      </c>
+      <c r="F325" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>325</v>
+      </c>
+      <c r="B326" s="69">
+        <f>M!I326</f>
+        <v>1000</v>
+      </c>
+      <c r="C326">
+        <v>7</v>
+      </c>
+      <c r="D326">
+        <v>7</v>
+      </c>
+      <c r="E326">
+        <v>7</v>
+      </c>
+      <c r="F326" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>326</v>
+      </c>
+      <c r="B327" s="69">
+        <f>M!I327</f>
+        <v>1000</v>
+      </c>
+      <c r="C327">
+        <v>7</v>
+      </c>
+      <c r="D327">
+        <v>7</v>
+      </c>
+      <c r="E327">
+        <v>7</v>
+      </c>
+      <c r="F327" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>327</v>
+      </c>
+      <c r="B328" s="69">
+        <f>M!I328</f>
+        <v>1000</v>
+      </c>
+      <c r="C328">
+        <v>7</v>
+      </c>
+      <c r="D328">
+        <v>7</v>
+      </c>
+      <c r="E328">
+        <v>7</v>
+      </c>
+      <c r="F328" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>328</v>
+      </c>
+      <c r="B329" s="69">
+        <f>M!I329</f>
+        <v>1000</v>
+      </c>
+      <c r="C329">
+        <v>7</v>
+      </c>
+      <c r="D329">
+        <v>7</v>
+      </c>
+      <c r="E329">
+        <v>7</v>
+      </c>
+      <c r="F329" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>329</v>
+      </c>
+      <c r="B330" s="69">
+        <f>M!I330</f>
+        <v>1000</v>
+      </c>
+      <c r="C330">
+        <v>7</v>
+      </c>
+      <c r="D330">
+        <v>7</v>
+      </c>
+      <c r="E330">
+        <v>7</v>
+      </c>
+      <c r="F330" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>330</v>
+      </c>
+      <c r="B331" s="69">
+        <f>M!I331</f>
+        <v>1000</v>
+      </c>
+      <c r="C331">
+        <v>7</v>
+      </c>
+      <c r="D331">
+        <v>7</v>
+      </c>
+      <c r="E331">
+        <v>7</v>
+      </c>
+      <c r="F331" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>331</v>
+      </c>
+      <c r="B332" s="69">
+        <f>M!I332</f>
+        <v>1000</v>
+      </c>
+      <c r="C332">
+        <v>7</v>
+      </c>
+      <c r="D332">
+        <v>7</v>
+      </c>
+      <c r="E332">
+        <v>7</v>
+      </c>
+      <c r="F332" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>332</v>
+      </c>
+      <c r="B333" s="69">
+        <f>M!I333</f>
+        <v>1000</v>
+      </c>
+      <c r="C333">
+        <v>7</v>
+      </c>
+      <c r="D333">
+        <v>7</v>
+      </c>
+      <c r="E333">
+        <v>7</v>
+      </c>
+      <c r="F333" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>333</v>
+      </c>
+      <c r="B334" s="69">
+        <f>M!I334</f>
+        <v>9</v>
+      </c>
+      <c r="C334">
+        <v>7</v>
+      </c>
+      <c r="D334">
+        <v>7</v>
+      </c>
+      <c r="E334">
+        <v>7</v>
+      </c>
+      <c r="F334" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>334</v>
+      </c>
+      <c r="B335" s="69">
+        <f>M!I335</f>
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>7</v>
+      </c>
+      <c r="D335">
+        <v>7</v>
+      </c>
+      <c r="E335">
+        <v>7</v>
+      </c>
+      <c r="F335" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>335</v>
+      </c>
+      <c r="B336" s="69">
+        <f>M!I336</f>
+        <v>24</v>
+      </c>
+      <c r="C336">
+        <v>7</v>
+      </c>
+      <c r="D336">
+        <v>7</v>
+      </c>
+      <c r="E336">
+        <v>7</v>
+      </c>
+      <c r="F336" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>336</v>
+      </c>
+      <c r="B337" s="69">
+        <f>M!I337</f>
+        <v>5</v>
+      </c>
+      <c r="C337">
+        <v>7</v>
+      </c>
+      <c r="D337">
+        <v>7</v>
+      </c>
+      <c r="E337">
+        <v>7</v>
+      </c>
+      <c r="F337" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>337</v>
+      </c>
+      <c r="B338" s="69">
+        <f>M!I338</f>
+        <v>10</v>
+      </c>
+      <c r="C338">
+        <v>7</v>
+      </c>
+      <c r="D338">
+        <v>7</v>
+      </c>
+      <c r="E338">
+        <v>7</v>
+      </c>
+      <c r="F338" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>338</v>
+      </c>
+      <c r="B339" s="69">
+        <f>M!I339</f>
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <v>7</v>
+      </c>
+      <c r="D339">
+        <v>7</v>
+      </c>
+      <c r="E339">
+        <v>7</v>
+      </c>
+      <c r="F339" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>339</v>
+      </c>
+      <c r="B340" s="69">
+        <f>M!I340</f>
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <v>7</v>
+      </c>
+      <c r="D340">
+        <v>7</v>
+      </c>
+      <c r="E340">
+        <v>7</v>
+      </c>
+      <c r="F340" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>340</v>
+      </c>
+      <c r="B341" s="69">
+        <f>M!I341</f>
+        <v>3</v>
+      </c>
+      <c r="C341">
+        <v>7</v>
+      </c>
+      <c r="D341">
+        <v>7</v>
+      </c>
+      <c r="E341">
+        <v>7</v>
+      </c>
+      <c r="F341" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>341</v>
+      </c>
+      <c r="B342" s="69">
+        <f>M!I342</f>
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>7</v>
+      </c>
+      <c r="D342">
+        <v>7</v>
+      </c>
+      <c r="E342">
+        <v>7</v>
+      </c>
+      <c r="F342" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>342</v>
+      </c>
+      <c r="B343" s="69">
+        <f>M!I343</f>
+        <v>6</v>
+      </c>
+      <c r="C343">
+        <v>7</v>
+      </c>
+      <c r="D343">
+        <v>7</v>
+      </c>
+      <c r="E343">
+        <v>7</v>
+      </c>
+      <c r="F343" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>343</v>
+      </c>
+      <c r="B344" s="69">
+        <f>M!I344</f>
+        <v>9</v>
+      </c>
+      <c r="C344">
+        <v>7</v>
+      </c>
+      <c r="D344">
+        <v>7</v>
+      </c>
+      <c r="E344">
+        <v>7</v>
+      </c>
+      <c r="F344" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>344</v>
+      </c>
+      <c r="B345" s="69">
+        <f>M!I345</f>
+        <v>6</v>
+      </c>
+      <c r="C345">
+        <v>7</v>
+      </c>
+      <c r="D345">
+        <v>7</v>
+      </c>
+      <c r="E345">
+        <v>7</v>
+      </c>
+      <c r="F345" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>345</v>
+      </c>
+      <c r="B346" s="69">
+        <f>M!I346</f>
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>7</v>
+      </c>
+      <c r="D346">
+        <v>7</v>
+      </c>
+      <c r="E346">
+        <v>7</v>
+      </c>
+      <c r="F346" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>346</v>
+      </c>
+      <c r="B347" s="69">
+        <f>M!I347</f>
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>7</v>
+      </c>
+      <c r="D347">
+        <v>7</v>
+      </c>
+      <c r="E347">
+        <v>7</v>
+      </c>
+      <c r="F347" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>347</v>
+      </c>
+      <c r="B348" s="69">
+        <f>M!I348</f>
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>7</v>
+      </c>
+      <c r="D348">
+        <v>7</v>
+      </c>
+      <c r="E348">
+        <v>7</v>
+      </c>
+      <c r="F348" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>348</v>
+      </c>
+      <c r="B349" s="69">
+        <f>M!I349</f>
+        <v>54</v>
+      </c>
+      <c r="C349">
+        <v>7</v>
+      </c>
+      <c r="D349">
+        <v>7</v>
+      </c>
+      <c r="E349">
+        <v>7</v>
+      </c>
+      <c r="F349" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>349</v>
+      </c>
+      <c r="B350" s="69">
+        <f>M!I350</f>
+        <v>8</v>
+      </c>
+      <c r="C350">
+        <v>7</v>
+      </c>
+      <c r="D350">
+        <v>7</v>
+      </c>
+      <c r="E350">
+        <v>7</v>
+      </c>
+      <c r="F350" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>350</v>
+      </c>
+      <c r="B351" s="69">
+        <f>M!I351</f>
+        <v>10</v>
+      </c>
+      <c r="C351">
+        <v>7</v>
+      </c>
+      <c r="D351">
+        <v>7</v>
+      </c>
+      <c r="E351">
+        <v>7</v>
+      </c>
+      <c r="F351" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>351</v>
+      </c>
+      <c r="B352" s="69">
+        <f>M!I352</f>
+        <v>11</v>
+      </c>
+      <c r="C352">
+        <v>7</v>
+      </c>
+      <c r="D352">
+        <v>7</v>
+      </c>
+      <c r="E352">
+        <v>7</v>
+      </c>
+      <c r="F352" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>352</v>
+      </c>
+      <c r="B353" s="69">
+        <f>M!I353</f>
+        <v>7</v>
+      </c>
+      <c r="C353">
+        <v>7</v>
+      </c>
+      <c r="D353">
+        <v>7</v>
+      </c>
+      <c r="E353">
+        <v>7</v>
+      </c>
+      <c r="F353" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>353</v>
+      </c>
+      <c r="B354" s="69">
+        <f>M!I354</f>
+        <v>14</v>
+      </c>
+      <c r="C354">
+        <v>7</v>
+      </c>
+      <c r="D354">
+        <v>7</v>
+      </c>
+      <c r="E354">
+        <v>7</v>
+      </c>
+      <c r="F354" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>354</v>
+      </c>
+      <c r="B355" s="69">
+        <f>M!I355</f>
+        <v>1000</v>
+      </c>
+      <c r="C355">
+        <v>7</v>
+      </c>
+      <c r="D355">
+        <v>7</v>
+      </c>
+      <c r="E355">
+        <v>7</v>
+      </c>
+      <c r="F355" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>355</v>
+      </c>
+      <c r="B356" s="69">
+        <f>M!I356</f>
+        <v>1000</v>
+      </c>
+      <c r="C356">
+        <v>7</v>
+      </c>
+      <c r="D356">
+        <v>7</v>
+      </c>
+      <c r="E356">
+        <v>7</v>
+      </c>
+      <c r="F356" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>356</v>
+      </c>
+      <c r="B357" s="69">
+        <f>M!I357</f>
+        <v>1000</v>
+      </c>
+      <c r="C357">
+        <v>7</v>
+      </c>
+      <c r="D357">
+        <v>7</v>
+      </c>
+      <c r="E357">
+        <v>7</v>
+      </c>
+      <c r="F357" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>357</v>
+      </c>
+      <c r="B358" s="69">
+        <f>M!I358</f>
+        <v>1000</v>
+      </c>
+      <c r="C358">
+        <v>7</v>
+      </c>
+      <c r="D358">
+        <v>7</v>
+      </c>
+      <c r="E358">
+        <v>7</v>
+      </c>
+      <c r="F358" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>358</v>
+      </c>
+      <c r="B359" s="69">
+        <f>M!I359</f>
+        <v>1000</v>
+      </c>
+      <c r="C359">
+        <v>7</v>
+      </c>
+      <c r="D359">
+        <v>7</v>
+      </c>
+      <c r="E359">
+        <v>7</v>
+      </c>
+      <c r="F359" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>359</v>
+      </c>
+      <c r="B360" s="69">
+        <f>M!I360</f>
+        <v>1000</v>
+      </c>
+      <c r="C360">
+        <v>7</v>
+      </c>
+      <c r="D360">
+        <v>7</v>
+      </c>
+      <c r="E360">
+        <v>7</v>
+      </c>
+      <c r="F360" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>360</v>
+      </c>
+      <c r="B361" s="69">
+        <f>M!I361</f>
+        <v>1000</v>
+      </c>
+      <c r="C361">
+        <v>7</v>
+      </c>
+      <c r="D361">
+        <v>7</v>
+      </c>
+      <c r="E361">
+        <v>7</v>
+      </c>
+      <c r="F361" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>361</v>
+      </c>
+      <c r="B362" s="69">
+        <f>M!I362</f>
+        <v>1000</v>
+      </c>
+      <c r="C362">
+        <v>7</v>
+      </c>
+      <c r="D362">
+        <v>7</v>
+      </c>
+      <c r="E362">
+        <v>7</v>
+      </c>
+      <c r="F362" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>362</v>
+      </c>
+      <c r="B363" s="69">
+        <f>M!I363</f>
+        <v>1000</v>
+      </c>
+      <c r="C363">
+        <v>7</v>
+      </c>
+      <c r="D363">
+        <v>7</v>
+      </c>
+      <c r="E363">
+        <v>7</v>
+      </c>
+      <c r="F363" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>363</v>
+      </c>
+      <c r="B364" s="69">
+        <f>M!I364</f>
+        <v>1000</v>
+      </c>
+      <c r="C364">
+        <v>7</v>
+      </c>
+      <c r="D364">
+        <v>7</v>
+      </c>
+      <c r="E364">
+        <v>7</v>
+      </c>
+      <c r="F364" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>364</v>
+      </c>
+      <c r="B365" s="69">
+        <f>M!I365</f>
+        <v>1000</v>
+      </c>
+      <c r="C365">
+        <v>7</v>
+      </c>
+      <c r="D365">
+        <v>7</v>
+      </c>
+      <c r="E365">
+        <v>7</v>
+      </c>
+      <c r="F365" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>365</v>
+      </c>
+      <c r="B366" s="69">
+        <f>M!I366</f>
+        <v>1000</v>
+      </c>
+      <c r="C366">
+        <v>7</v>
+      </c>
+      <c r="D366">
+        <v>7</v>
+      </c>
+      <c r="E366">
+        <v>7</v>
+      </c>
+      <c r="F366" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>366</v>
+      </c>
+      <c r="B367" s="69">
+        <f>M!I367</f>
+        <v>1000</v>
+      </c>
+      <c r="C367">
+        <v>7</v>
+      </c>
+      <c r="D367">
+        <v>7</v>
+      </c>
+      <c r="E367">
+        <v>7</v>
+      </c>
+      <c r="F367" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>367</v>
+      </c>
+      <c r="B368" s="69">
+        <f>M!I368</f>
+        <v>1000</v>
+      </c>
+      <c r="C368">
+        <v>7</v>
+      </c>
+      <c r="D368">
+        <v>7</v>
+      </c>
+      <c r="E368">
+        <v>7</v>
+      </c>
+      <c r="F368" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>368</v>
+      </c>
+      <c r="B369" s="69">
+        <f>M!I369</f>
+        <v>42</v>
+      </c>
+      <c r="C369">
+        <v>7</v>
+      </c>
+      <c r="D369">
+        <v>7</v>
+      </c>
+      <c r="E369">
+        <v>7</v>
+      </c>
+      <c r="F369" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>369</v>
+      </c>
+      <c r="B370" s="69">
+        <f>M!I370</f>
+        <v>51</v>
+      </c>
+      <c r="C370">
+        <v>7</v>
+      </c>
+      <c r="D370">
+        <v>7</v>
+      </c>
+      <c r="E370">
+        <v>7</v>
+      </c>
+      <c r="F370" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <f>Table4[[#This Row],[ID]]</f>
+        <v>370</v>
+      </c>
+      <c r="B371" s="69">
+        <f>M!I371</f>
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>7</v>
+      </c>
+      <c r="D371">
+        <v>7</v>
+      </c>
+      <c r="E371">
+        <v>7</v>
+      </c>
+      <c r="F371" s="69">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
